--- a/openpy_dsse/examples/15NodeIEEE/Results/Results_DSSE_15NodeIEEE.xlsx
+++ b/openpy_dsse/examples/15NodeIEEE/Results/Results_DSSE_15NodeIEEE.xlsx
@@ -475,10 +475,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.00939416520369</v>
+        <v>1.00939432679166</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07673752486247895</v>
+        <v>0.07673537214160923</v>
       </c>
       <c r="E2" t="n">
         <v>1.0094</v>
@@ -497,16 +497,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9749701865345083</v>
+        <v>0.9749754488946234</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.05029513679455767</v>
+        <v>-0.05053452184021887</v>
       </c>
       <c r="E3" t="n">
         <v>0.975</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1019</v>
+        <v>0.1028</v>
       </c>
     </row>
     <row r="4">
@@ -519,16 +519,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9622835359194968</v>
+        <v>0.9622904955496359</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.05486954647392338</v>
+        <v>-0.05520162107431915</v>
       </c>
       <c r="E4" t="n">
         <v>0.9623</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0993</v>
+        <v>0.0985</v>
       </c>
     </row>
     <row r="5">
@@ -541,16 +541,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.953111372036605</v>
+        <v>0.9531193669295966</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.09153018260974154</v>
+        <v>-0.09191377460253754</v>
       </c>
       <c r="E5" t="n">
         <v>0.9530999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0953</v>
+        <v>0.0963</v>
       </c>
     </row>
     <row r="6">
@@ -563,16 +563,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9520432793667355</v>
+        <v>0.9520514358513943</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0964373939618874</v>
+        <v>-0.09682861819070865</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9524</v>
+        <v>0.9523</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1054</v>
+        <v>0.1038</v>
       </c>
     </row>
     <row r="7">
@@ -585,10 +585,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9725098502268846</v>
+        <v>0.9725155429972897</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.05811226738359664</v>
+        <v>-0.05837308947739608</v>
       </c>
       <c r="E7" t="n">
         <v>0.9725</v>
@@ -607,13 +607,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9716422374627192</v>
+        <v>0.9716480589416294</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.05964408059848408</v>
+        <v>-0.05991161094452264</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9716</v>
+        <v>0.9717</v>
       </c>
       <c r="F8" t="n">
         <v>0.1001</v>
@@ -629,16 +629,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9673859345499366</v>
+        <v>0.9673919320071813</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.07407473557588255</v>
+        <v>-0.07434942497228972</v>
       </c>
       <c r="E9" t="n">
         <v>0.9674</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1016</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="10">
@@ -651,16 +651,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9643468001847828</v>
+        <v>0.9643529542336976</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.08365523047100361</v>
+        <v>-0.08393696208884831</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9641999999999999</v>
+        <v>0.9643</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09810000000000001</v>
+        <v>0.1005</v>
       </c>
     </row>
     <row r="11">
@@ -673,16 +673,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9658691103306827</v>
+        <v>0.9658752548592051</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.078875423663041</v>
+        <v>-0.07915722682329414</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9658</v>
+        <v>0.9659</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09669999999999999</v>
+        <v>0.0989</v>
       </c>
     </row>
     <row r="12">
@@ -695,16 +695,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9575210300838182</v>
+        <v>0.9575286848742928</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.06790054671394273</v>
+        <v>-0.06826733089280886</v>
       </c>
       <c r="E12" t="n">
         <v>0.9573</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1007</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13">
@@ -717,16 +717,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9554658592872688</v>
+        <v>0.9554739975739441</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.07768275526929999</v>
+        <v>-0.07807269246896029</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9553</v>
+        <v>0.9550999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1002</v>
+        <v>0.09959999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -739,16 +739,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9537515569028931</v>
+        <v>0.953759865174989</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.08580820883578906</v>
+        <v>-0.08620578960271544</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9536</v>
+        <v>0.9535</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1032</v>
+        <v>0.1017</v>
       </c>
     </row>
     <row r="15">
@@ -761,16 +761,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9515140318650287</v>
+        <v>0.9515221951387307</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1071108076377969</v>
+        <v>-0.1075007037841103</v>
       </c>
       <c r="E15" t="n">
-        <v>0.952</v>
+        <v>0.9519</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1067</v>
+        <v>0.1055</v>
       </c>
     </row>
     <row r="16">
@@ -783,16 +783,16 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9499119860362487</v>
+        <v>0.9499201049895872</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.12269609654382</v>
+        <v>-0.1230862792453686</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9504</v>
+        <v>0.9503</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1118</v>
+        <v>0.1107</v>
       </c>
     </row>
   </sheetData>
